--- a/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
   </si>
   <si>
     <t>lowest</t>
@@ -70,100 +70,100 @@
     <t>died</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>pressure</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>:</t>
+    <t>prices</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>,</t>
   </si>
   <si>
     <t>a</t>
@@ -175,205 +175,190 @@
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -731,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,31 +803,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -850,13 +835,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -868,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -892,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -900,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -918,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -942,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -950,13 +935,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -992,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.8833333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1042,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1050,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.797945205479452</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1068,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1100,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1121,16 +1106,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1142,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1150,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10">
         <v>0.8333333333333334</v>
@@ -1200,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.814621409921671</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>312</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>71</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7297297297297297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1321,16 +1306,16 @@
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.8046875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.72</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.795774647887324</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1418,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L15">
+        <v>38</v>
+      </c>
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>9</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15">
-        <v>0.7875</v>
-      </c>
-      <c r="L15">
-        <v>126</v>
-      </c>
-      <c r="M15">
-        <v>126</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1450,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6842105263157895</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1468,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.7830188679245284</v>
+        <v>0.796875</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1492,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1500,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6521739130434783</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1518,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.79375</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1542,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1550,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5396825396825397</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C18">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1568,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1592,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1600,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5294117647058824</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1618,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1642,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1671,16 +1656,16 @@
         <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.7575757575757576</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1692,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1700,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5174418604651163</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C21">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D21">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1742,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1750,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5161290322580645</v>
+        <v>0.5026455026455027</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1768,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1792,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1800,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4832214765100671</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C23">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1818,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1842,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1850,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4814814814814815</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1868,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.7301587301587301</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1892,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1900,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1918,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1942,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,16 +1956,16 @@
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.7209302325581395</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1992,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2000,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4333333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2018,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2042,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2071,16 +2056,16 @@
         <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.6842105263157895</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2092,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2100,13 +2085,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2118,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K29">
         <v>0.6818181818181818</v>
@@ -2171,16 +2156,16 @@
         <v>33</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2192,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2200,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3777777777777778</v>
+        <v>0.3916666666666667</v>
       </c>
       <c r="C31">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D31">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2218,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.6529411764705882</v>
+        <v>0.64</v>
       </c>
       <c r="L31">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2242,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>118</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2250,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3513513513513514</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2268,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2292,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2300,13 +2285,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3392857142857143</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2321,7 +2306,7 @@
         <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33">
         <v>0.625</v>
@@ -2350,13 +2335,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3090909090909091</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2368,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34">
         <v>0.625</v>
@@ -2400,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2418,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35">
         <v>0.625</v>
@@ -2450,13 +2435,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2333333333333333</v>
+        <v>0.2182539682539683</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2468,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.5898305084745763</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L36">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2492,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>121</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2500,13 +2485,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.1420911528150134</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2518,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.5846153846153846</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L37">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2542,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2550,13 +2535,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1948051948051948</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2568,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.58</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2592,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2600,13 +2585,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1447721179624665</v>
+        <v>0.01291989664082687</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2618,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>319</v>
+        <v>1146</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.574468085106383</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L39">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2642,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2650,37 +2635,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06</v>
+        <v>0.01264755480607083</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>282</v>
+        <v>2342</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.5690376569037657</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2692,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2700,37 +2685,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0170261066969353</v>
+        <v>0.01160167579761521</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E41">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F41">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>866</v>
+        <v>3067</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2742,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2750,37 +2735,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0134964150147617</v>
+        <v>0.0109717868338558</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E42">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="F42">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2339</v>
+        <v>1262</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2792,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2800,19 +2785,19 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009813084112149532</v>
+        <v>0.008886810102899906</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>24</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F43">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
@@ -2821,10 +2806,10 @@
         <v>2119</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.5555555555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
         <v>15</v>
@@ -2842,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2850,49 +2835,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009342783505154639</v>
+        <v>0.00700164744645799</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D44">
+        <v>34</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>2411</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44">
+        <v>0.5076923076923077</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>33</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>32</v>
-      </c>
-      <c r="E44">
-        <v>0.09</v>
-      </c>
-      <c r="F44">
-        <v>0.91</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>3075</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K44">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="L44">
-        <v>18</v>
-      </c>
-      <c r="M44">
-        <v>18</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2900,19 +2885,19 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.009110629067245119</v>
+        <v>0.006524575902566333</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>25</v>
       </c>
       <c r="E45">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="F45">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2921,16 +2906,16 @@
         <v>2284</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2942,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2950,19 +2935,19 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005828638041577618</v>
+        <v>0.005055415127357573</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D46">
         <v>48</v>
       </c>
       <c r="E46">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="F46">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2971,16 +2956,16 @@
         <v>5117</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K46">
-        <v>0.5357142857142857</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2992,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3000,37 +2985,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005827974276527331</v>
+        <v>0.00482897384305835</v>
       </c>
       <c r="C47">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D47">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="F47">
-        <v>0.5900000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.5285714285714286</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L47">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3042,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3050,644 +3035,542 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004714016341923318</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
+      <c r="E48">
+        <v>0.58</v>
+      </c>
+      <c r="F48">
+        <v>0.42</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>4280</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0.4390243902439024</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>0.95</v>
+      </c>
+      <c r="O48">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49">
+        <v>0.4</v>
+      </c>
+      <c r="L49">
+        <v>18</v>
+      </c>
+      <c r="M49">
+        <v>18</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L50">
+        <v>18</v>
+      </c>
+      <c r="M50">
+        <v>18</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>22</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>22</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54">
+        <v>0.2622950819672131</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>16</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55">
+        <v>0.203125</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L56">
         <v>15</v>
       </c>
-      <c r="D48">
-        <v>34</v>
-      </c>
-      <c r="E48">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F48">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>3167</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L48">
-        <v>46</v>
-      </c>
-      <c r="M48">
-        <v>46</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.003947979563399907</v>
-      </c>
-      <c r="C49">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>39</v>
-      </c>
-      <c r="E49">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4289</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>13</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="M56">
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K57">
+        <v>0.07567567567567568</v>
+      </c>
+      <c r="L57">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>0.4313725490196079</v>
-      </c>
-      <c r="L50">
-        <v>22</v>
-      </c>
-      <c r="M50">
-        <v>22</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51">
-        <v>0.4047619047619048</v>
-      </c>
-      <c r="L51">
-        <v>17</v>
-      </c>
-      <c r="M51">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.4</v>
-      </c>
-      <c r="L52">
-        <v>18</v>
-      </c>
-      <c r="M52">
-        <v>18</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>0.3220338983050847</v>
-      </c>
-      <c r="L53">
-        <v>19</v>
-      </c>
-      <c r="M53">
-        <v>19</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K54">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L54">
-        <v>23</v>
-      </c>
-      <c r="M54">
-        <v>23</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55">
-        <v>0.296875</v>
-      </c>
-      <c r="L55">
-        <v>19</v>
-      </c>
-      <c r="M55">
-        <v>19</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K56">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="L56">
-        <v>23</v>
-      </c>
-      <c r="M56">
-        <v>23</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K57">
-        <v>0.2807017543859649</v>
-      </c>
-      <c r="L57">
-        <v>16</v>
-      </c>
-      <c r="M57">
-        <v>16</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
+      <c r="K58">
+        <v>0.02921535893155259</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>37</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K58">
-        <v>0.2295081967213115</v>
-      </c>
-      <c r="L58">
-        <v>14</v>
-      </c>
-      <c r="M58">
-        <v>14</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="K59">
+        <v>0.02742230347349177</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K59">
-        <v>0.08648648648648649</v>
-      </c>
-      <c r="L59">
-        <v>16</v>
-      </c>
-      <c r="M59">
-        <v>16</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="K60">
-        <v>0.03125</v>
+        <v>0.01019607843137255</v>
       </c>
       <c r="L60">
         <v>13</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K61">
-        <v>0.02847571189279732</v>
+        <v>0.00900562851782364</v>
       </c>
       <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>32</v>
+      </c>
+      <c r="N61">
+        <v>0.75</v>
+      </c>
+      <c r="O61">
+        <v>0.25</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62">
+        <v>0.00700164744645799</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
         <v>34</v>
       </c>
-      <c r="M61">
-        <v>40</v>
-      </c>
-      <c r="N61">
-        <v>0.85</v>
-      </c>
-      <c r="O61">
-        <v>0.15</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K62">
-        <v>0.02559414990859232</v>
-      </c>
-      <c r="L62">
-        <v>14</v>
-      </c>
-      <c r="M62">
-        <v>14</v>
-      </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="K63">
-        <v>0.010718789407314</v>
+        <v>0.006499535747446611</v>
       </c>
       <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63">
+        <v>48</v>
+      </c>
+      <c r="N63">
+        <v>0.58</v>
+      </c>
+      <c r="O63">
+        <v>0.42</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64">
+        <v>0.006270903010033445</v>
+      </c>
+      <c r="L64">
+        <v>15</v>
+      </c>
+      <c r="M64">
         <v>17</v>
       </c>
-      <c r="M63">
-        <v>25</v>
-      </c>
-      <c r="N63">
-        <v>0.68</v>
-      </c>
-      <c r="O63">
-        <v>0.32</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64">
-        <v>0.01015625</v>
-      </c>
-      <c r="L64">
-        <v>13</v>
-      </c>
-      <c r="M64">
-        <v>22</v>
-      </c>
       <c r="N64">
-        <v>0.59</v>
+        <v>0.88</v>
       </c>
       <c r="O64">
-        <v>0.41</v>
+        <v>0.12</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1267</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>0.00974878140232471</v>
+        <v>0.005642633228840125</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M65">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.8100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="O65">
-        <v>0.1899999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2641</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>0.008779264214046822</v>
+        <v>0.005229283990345938</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N66">
-        <v>0.91</v>
+        <v>0.52</v>
       </c>
       <c r="O66">
-        <v>0.08999999999999997</v>
+        <v>0.48</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2371</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>0.005963590709353421</v>
+        <v>0.004280988519167153</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N67">
-        <v>0.5600000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="O67">
-        <v>0.4399999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68">
-        <v>0.005103224309904894</v>
-      </c>
-      <c r="L68">
-        <v>22</v>
-      </c>
-      <c r="M68">
-        <v>39</v>
-      </c>
-      <c r="N68">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O68">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69">
-        <v>0.004026575397624321</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>49</v>
-      </c>
-      <c r="N69">
-        <v>0.41</v>
-      </c>
-      <c r="O69">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>4947</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K70">
-        <v>0.003505355404089581</v>
-      </c>
-      <c r="L70">
-        <v>18</v>
-      </c>
-      <c r="M70">
-        <v>48</v>
-      </c>
-      <c r="N70">
-        <v>0.38</v>
-      </c>
-      <c r="O70">
-        <v>0.62</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
         <v>5117</v>
       </c>
     </row>
